--- a/tuitionProcess.xlsx
+++ b/tuitionProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/170835/Documents/ALLPROJECTS/updateMillennials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3FC89-D28A-6145-B428-44DECB15535C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0432767D-FF97-EE4B-BE83-07A07E6B62E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1840" windowWidth="27240" windowHeight="16440" xr2:uid="{2FD73D75-8B36-BC45-BFEE-4FD686B06CA2}"/>
+    <workbookView xWindow="51280" yWindow="2660" windowWidth="27240" windowHeight="16440" xr2:uid="{2FD73D75-8B36-BC45-BFEE-4FD686B06CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>Tuition and required fees</t>
   </si>
@@ -228,9 +228,6 @@
     <t>same year</t>
   </si>
   <si>
-    <t>tuition and fees</t>
-  </si>
-  <si>
     <t>Minimums</t>
   </si>
   <si>
@@ -253,13 +250,46 @@
   </si>
   <si>
     <t>same year calc</t>
+  </si>
+  <si>
+    <t>4-year public UNIVERSITIES</t>
+  </si>
+  <si>
+    <t>All 4-year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---</t>
+  </si>
+  <si>
+    <t>1964-65 ......................</t>
+  </si>
+  <si>
+    <t>1965-66 ........................</t>
+  </si>
+  <si>
+    <t>1966-67 .......................</t>
+  </si>
+  <si>
+    <t>1985-86\2\ .......................</t>
+  </si>
+  <si>
+    <t>2003-04\3\ ...........................</t>
+  </si>
+  <si>
+    <t>2006-07\4\ ...........................</t>
+  </si>
+  <si>
+    <t>all 4-year public</t>
+  </si>
+  <si>
+    <t>4-year public universities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +298,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -281,10 +317,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -302,9 +349,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,21 +677,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF09603-5C2D-0D4A-A993-20943C0EB368}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="22" max="22" width="17.5" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" customWidth="1"/>
+    <col min="33" max="33" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -645,8 +701,22 @@
       <c r="H1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -668,8 +738,20 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -687,8 +769,12 @@
         <f>C4*4</f>
         <v>973.34337892429107</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <f>M4*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,8 +792,21 @@
         <f t="shared" ref="I5:I56" si="1">C5*4</f>
         <v>1023.0819703090538</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="3">
+        <v>298</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S56" si="2">M5*4</f>
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -725,14 +824,27 @@
         <f t="shared" si="1"/>
         <v>1111.6898573861977</v>
       </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="3">
+        <v>327</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>1308</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -758,14 +870,25 @@
         <f t="shared" si="1"/>
         <v>1209.4497162326272</v>
       </c>
-      <c r="O7" t="s">
-        <v>68</v>
+      <c r="K7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="3">
+        <v>360</v>
       </c>
       <c r="P7">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <f>SUM(M4:M7)</f>
+        <v>985</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,11 +899,11 @@
         <v>310.07443611583534</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:F8" si="2">SUM(B5:B8)</f>
+        <f t="shared" ref="E8:F8" si="3">SUM(B5:B8)</f>
         <v>4084.3254533657137</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1146.1298220978051</v>
       </c>
       <c r="H8">
@@ -791,20 +914,37 @@
         <f t="shared" si="1"/>
         <v>1240.2977444633414</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="3">
+        <v>366</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P56" si="4">SUM(M5:M8)</f>
+        <v>1351</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>1464</v>
+      </c>
+      <c r="X8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Y8" t="s">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,11 +955,11 @@
         <v>321.00236198791822</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:F9" si="3">SUM(B6:B9)</f>
+        <f t="shared" ref="E9:F9" si="5">SUM(B6:B9)</f>
         <v>4276.1115410567618</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1211.3616915084599</v>
       </c>
       <c r="H9">
@@ -830,25 +970,47 @@
         <f t="shared" si="1"/>
         <v>1284.0094479516729</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="3">
+        <v>377</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>1430</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>1508</v>
+      </c>
+      <c r="W9" t="s">
         <v>59</v>
       </c>
-      <c r="L9">
+      <c r="X9">
         <f>F17</f>
         <v>2184.6902643347703</v>
       </c>
-      <c r="M9">
+      <c r="Y9">
         <f>I17</f>
         <v>2466.206149504671</v>
       </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AG9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9">
+        <f>P17</f>
+        <v>2511.2205693933652</v>
+      </c>
+      <c r="AI9">
+        <f>S17</f>
+        <v>2756.8822775734607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -859,11 +1021,11 @@
         <v>358.35483154316364</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:F10" si="4">SUM(B7:B10)</f>
+        <f t="shared" ref="E10:F10" si="6">SUM(B7:B10)</f>
         <v>4518.3485694911997</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1291.7940587050739</v>
       </c>
       <c r="H10">
@@ -874,25 +1036,47 @@
         <f t="shared" si="1"/>
         <v>1433.4193261726546</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="3">
+        <v>427</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>1530</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>1708</v>
+      </c>
+      <c r="W10" t="s">
         <v>60</v>
       </c>
-      <c r="L10">
+      <c r="X10">
         <f>F16</f>
         <v>2070.7687715951342</v>
       </c>
-      <c r="M10">
+      <c r="Y10">
         <f>I16</f>
         <v>2168.5817064831972</v>
       </c>
-      <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AG10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH10">
+        <f>P16</f>
+        <v>2388</v>
+      </c>
+      <c r="AI10">
+        <f>S16</f>
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,11 +1087,11 @@
         <v>393.6885582256935</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:F11" si="5">SUM(B8:B11)</f>
+        <f t="shared" ref="E11:F11" si="7">SUM(B8:B11)</f>
         <v>4795.3399240089147</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1383.1201878726108</v>
       </c>
       <c r="H11">
@@ -918,14 +1102,25 @@
         <f t="shared" si="1"/>
         <v>1574.754232902774</v>
       </c>
-      <c r="S11" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="3">
+        <v>478</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>1648</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -936,11 +1131,11 @@
         <v>427.76161675450936</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:F12" si="6">SUM(B9:B12)</f>
+        <f t="shared" ref="E12:F12" si="8">SUM(B9:B12)</f>
         <v>5111.547938906293</v>
       </c>
       <c r="F12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1500.8073685112847</v>
       </c>
       <c r="H12">
@@ -951,36 +1146,47 @@
         <f t="shared" si="1"/>
         <v>1711.0464670180374</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="3">
+        <v>526</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>1808</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>2104</v>
+      </c>
+      <c r="W12" t="s">
         <v>61</v>
       </c>
-      <c r="L12">
+      <c r="X12">
         <f>F47</f>
         <v>20630.252534255607</v>
       </c>
-      <c r="M12">
+      <c r="Y12">
         <f>I47</f>
         <v>22664.929046562902</v>
       </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12">
-        <v>5.15</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="AG12" t="s">
         <v>61</v>
       </c>
-      <c r="S12">
-        <f>L12/$P$12</f>
-        <v>4005.8742784962342</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ref="T12:T13" si="7">M12/$P$12</f>
-        <v>4400.9570964199811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH12">
+        <f>P47</f>
+        <v>24537.0190980552</v>
+      </c>
+      <c r="AI12">
+        <f>S47</f>
+        <v>27344.228476551591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -991,11 +1197,11 @@
         <v>502.63004463653169</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:F13" si="8">SUM(B10:B13)</f>
+        <f t="shared" ref="E13:F13" si="9">SUM(B10:B13)</f>
         <v>5522.0851399331923</v>
       </c>
       <c r="F13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1682.4350511598982</v>
       </c>
       <c r="H13">
@@ -1006,30 +1212,47 @@
         <f t="shared" si="1"/>
         <v>2010.5201785461268</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="3">
+        <v>566</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>1997</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>2264</v>
+      </c>
+      <c r="W13" t="s">
         <v>62</v>
       </c>
-      <c r="L13">
+      <c r="X13">
         <f>F46</f>
         <v>19010.193373994676</v>
       </c>
-      <c r="M13">
+      <c r="Y13">
         <f>I46</f>
         <v>21403.717543096529</v>
       </c>
-      <c r="R13" t="s">
+      <c r="AG13" t="s">
         <v>62</v>
       </c>
-      <c r="S13">
-        <f t="shared" ref="S13" si="9">L13/$P$12</f>
-        <v>3691.2996842708108</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="7"/>
-        <v>4156.061658853695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH13">
+        <f>P46</f>
+        <v>22386.87072315325</v>
+      </c>
+      <c r="AI13">
+        <f>S46</f>
+        <v>25596.821283970519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1055,8 +1278,25 @@
         <f t="shared" si="1"/>
         <v>2054.3074227637521</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="3">
+        <v>581</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>2151</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1082,8 +1322,25 @@
         <f t="shared" si="1"/>
         <v>2049.6657785874618</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="3">
+        <v>599</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>2272</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1109,8 +1366,31 @@
         <f t="shared" si="1"/>
         <v>2168.5817064831972</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="3">
+        <v>642</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>2388</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2568</v>
+      </c>
+      <c r="W16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1136,8 +1416,37 @@
         <f t="shared" si="1"/>
         <v>2466.206149504671</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="3">
+        <v>616.6446586166436</v>
+      </c>
+      <c r="M17" s="3">
+        <v>689.22056939336517</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>2511.2205693933652</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>2756.8822775734607</v>
+      </c>
+      <c r="W17" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17">
+        <v>1.6</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1163,8 +1472,37 @@
         <f t="shared" si="1"/>
         <v>2618.7238521724703</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3">
+        <v>654.66806403255953</v>
+      </c>
+      <c r="M18" s="3">
+        <v>735.96924517046887</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>2666.1898145638343</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>2943.8769806818755</v>
+      </c>
+      <c r="W18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1190,8 +1528,37 @@
         <f t="shared" si="1"/>
         <v>2750.6979007996529</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3">
+        <v>687.67447519991322</v>
+      </c>
+      <c r="M19" s="3">
+        <v>776.90922901525869</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>2844.0990435790927</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>3107.6369160610348</v>
+      </c>
+      <c r="W19" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19">
+        <v>2.1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH19">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1217,8 +1584,37 @@
         <f t="shared" si="1"/>
         <v>2950.1934032764425</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3">
+        <v>737.54835081911062</v>
+      </c>
+      <c r="M20" s="3">
+        <v>839.71571710519515</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>3041.8147606842876</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>3358.8628684207806</v>
+      </c>
+      <c r="W20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH20">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1244,8 +1640,25 @@
         <f t="shared" si="1"/>
         <v>3214.9891120838047</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3">
+        <v>803.74727802095117</v>
+      </c>
+      <c r="M21" s="3">
+        <v>914.99171910249743</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>3267.5859103934204</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>3659.9668764099897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1271,8 +1684,37 @@
         <f t="shared" si="1"/>
         <v>3637.9974175603647</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="3">
+        <v>909.49935439009118</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1042.1096903252728</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>3573.7263555482241</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>4168.4387613010913</v>
+      </c>
+      <c r="W22" t="s">
+        <v>66</v>
+      </c>
+      <c r="X22">
+        <v>5.15</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH22">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1298,8 +1740,25 @@
         <f t="shared" si="1"/>
         <v>4125.7326584535067</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1031.4331646133767</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1164</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>3960.8171265329656</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,8 +1784,25 @@
         <f t="shared" si="1"/>
         <v>4590.908848390849</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1147.7272120977123</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1284</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>4405.1014094277707</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1352,8 +1828,37 @@
         <f t="shared" si="1"/>
         <v>4911.5267805942967</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1227.8816951485742</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1386</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>4876.1096903252728</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>5544</v>
+      </c>
+      <c r="X25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1379,8 +1884,47 @@
         <f t="shared" si="1"/>
         <v>5270.4042126011745</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1317.6010531502936</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1536</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>5370</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>6144</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <f>X12/$X$22</f>
+        <v>4005.8742784962342</v>
+      </c>
+      <c r="Y26">
+        <f>Y12/$X$22</f>
+        <v>4400.9570964199811</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH26">
+        <f>AH12/$X$22</f>
+        <v>4764.4697277777086</v>
+      </c>
+      <c r="AI26">
+        <f>AI12/$X$22</f>
+        <v>5309.5589274857457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1406,8 +1950,47 @@
         <f t="shared" si="1"/>
         <v>5654.7150675349776</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1413.6787668837444</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1651.0805886423066</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>5857.0805886423068</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>6604.3223545692263</v>
+      </c>
+      <c r="W27" t="s">
+        <v>62</v>
+      </c>
+      <c r="X27">
+        <f>X13/$X$22</f>
+        <v>3691.2996842708108</v>
+      </c>
+      <c r="Y27">
+        <f>Y13/$X$22</f>
+        <v>4156.061658853695</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH27">
+        <f>AH13/$X$22</f>
+        <v>4346.9651889617962</v>
+      </c>
+      <c r="AI27">
+        <f>AI13/$X$22</f>
+        <v>4970.2565599942754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,8 +2016,25 @@
         <f t="shared" si="1"/>
         <v>6149.4725332165663</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1537.3681333041416</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1726.4027418447124</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>6299.483330487019</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>6905.6109673788496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1460,8 +2060,25 @@
         <f t="shared" si="1"/>
         <v>6584.7524087304973</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1646.1881021826243</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1845.7193747543063</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>6759.202705241325</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>7382.8774990172251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1487,8 +2104,25 @@
         <f t="shared" si="1"/>
         <v>7118.4361317710645</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1779.6090329427661</v>
+      </c>
+      <c r="M30" s="3">
+        <v>2034.5250331945663</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>7257.7277384358913</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>8138.1001327782651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1514,8 +2148,25 @@
         <f t="shared" si="1"/>
         <v>7552.5164519790451</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1888.1291129947613</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2159.3654403513674</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>7766.0125901449528</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>8637.4617614054696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1541,8 +2192,25 @@
         <f t="shared" si="1"/>
         <v>8467.571407467758</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2116.8928518669395</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2409.3161921692804</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>8448.9260404695196</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>9637.2647686771215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1568,8 +2236,25 @@
         <f t="shared" si="1"/>
         <v>9396.434300743249</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2349.1085751858122</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2604.1339110611584</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>9207.3405767763725</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>10416.535644244634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1595,8 +2280,25 @@
         <f t="shared" si="1"/>
         <v>10146.329230149266</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2536.5823075373164</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2819.940966761646</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>9992.7565103434517</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>11279.763867046584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1622,8 +2324,25 @@
         <f t="shared" si="1"/>
         <v>10722.86117038341</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2680.7152925958526</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2977.1682286850041</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>10810.55929867709</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>11908.672914740016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1649,8 +2368,25 @@
         <f t="shared" si="1"/>
         <v>11390.316488949304</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2847.5791222373259</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3151.4371710170076</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>11552.680277524816</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>12605.74868406803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1676,8 +2412,25 @@
         <f t="shared" si="1"/>
         <v>11948.88512658931</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2987.2212816473275</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3322.5398550515856</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>12271.086221515243</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>13290.159420206342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1703,8 +2456,25 @@
         <f t="shared" si="1"/>
         <v>12438.023503044727</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="3">
+        <v>3109.5058757611819</v>
+      </c>
+      <c r="M38" s="3">
+        <v>3486.2959240622276</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>12937.441178815825</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>13945.183696248911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1730,8 +2500,25 @@
         <f t="shared" si="1"/>
         <v>12914.867418082616</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3228.7168545206541</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3640.2953011909694</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>13600.568251321791</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>14561.181204763878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1757,8 +2544,25 @@
         <f t="shared" si="1"/>
         <v>13395.222821119269</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3349.2878602767864</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3768.37501617512</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>14217.506096479901</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>15073.50006470048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1784,8 +2588,25 @@
         <f t="shared" si="1"/>
         <v>14002.099926794066</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3500.5249817581703</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3978.809745423076</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>14873.775986851393</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>15915.238981692304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1811,8 +2632,25 @@
         <f t="shared" si="1"/>
         <v>14940.822624804074</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3735.2056561964027</v>
+      </c>
+      <c r="M42" s="3">
+        <v>4273.0320512392673</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>15660.512114028432</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>17092.128204957069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1838,8 +2676,25 @@
         <f t="shared" si="1"/>
         <v>16184.692405519172</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="3">
+        <v>4046.1731014131224</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4685.9087442359478</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>16706.12555707341</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>18743.634976943791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1865,8 +2720,25 @@
         <f t="shared" si="1"/>
         <v>18346.162552046299</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" s="3">
+        <v>4586.5406380957429</v>
+      </c>
+      <c r="M44" s="3">
+        <v>5362.776548832856</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>18300.527089731146</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>21451.106195331424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,8 +2764,25 @@
         <f t="shared" si="1"/>
         <v>20106.2009953167</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5026.5502488758093</v>
+      </c>
+      <c r="M45" s="3">
+        <v>5938.9801090918163</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>20260.697453399887</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>23755.920436367265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1919,8 +2808,25 @@
         <f t="shared" si="1"/>
         <v>21403.717543096529</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="3">
+        <v>5350.9293857928906</v>
+      </c>
+      <c r="M46" s="3">
+        <v>6399.2053209926298</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>22386.87072315325</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>25596.821283970519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1946,8 +2852,25 @@
         <f t="shared" si="1"/>
         <v>22664.929046562902</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="3">
+        <v>5684.8015279477231</v>
+      </c>
+      <c r="M47" s="3">
+        <v>6836.0571191378976</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>24537.0190980552</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>27344.228476551591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1973,8 +2896,16 @@
         <f t="shared" si="1"/>
         <v>23772.463508908873</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>19174.242549222345</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2000,8 +2931,16 @@
         <f t="shared" si="1"/>
         <v>25247.419794525871</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>13235.262440130527</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2027,8 +2966,16 @@
         <f t="shared" si="1"/>
         <v>26866.396675681193</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>6836.0571191378976</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2054,8 +3001,16 @@
         <f t="shared" si="1"/>
         <v>28527.386267681552</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2081,8 +3036,16 @@
         <f t="shared" si="1"/>
         <v>30853.641974055929</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2108,8 +3071,16 @@
         <f t="shared" si="1"/>
         <v>32280.760105482375</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2135,8 +3106,16 @@
         <f t="shared" si="1"/>
         <v>33247.446631324077</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2162,8 +3141,16 @@
         <f t="shared" si="1"/>
         <v>34173.330091215197</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,6 +3175,14 @@
       <c r="I56">
         <f t="shared" si="1"/>
         <v>35111.383318622473</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
